--- a/Code/Results/Cases/Case_5_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.526841363068343</v>
+        <v>0.9064210071257435</v>
       </c>
       <c r="C2">
-        <v>0.6758256720020483</v>
+        <v>0.2203067207800018</v>
       </c>
       <c r="D2">
-        <v>0.1299029981800146</v>
+        <v>0.2023424355200234</v>
       </c>
       <c r="E2">
-        <v>0.0770489966227963</v>
+        <v>0.1547909353960861</v>
       </c>
       <c r="F2">
-        <v>0.6121187292590378</v>
+        <v>1.17751814677009</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.1817513165203231</v>
+        <v>0.5231711738452223</v>
       </c>
       <c r="J2">
-        <v>0.06586228060180588</v>
+        <v>0.1596138729009482</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7173252769307936</v>
+        <v>0.3703977477924028</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.342666843157303</v>
+        <v>2.689013073750971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.199683128156721</v>
+        <v>0.8031573600239881</v>
       </c>
       <c r="C3">
-        <v>0.58978476717067</v>
+        <v>0.1929127848293888</v>
       </c>
       <c r="D3">
-        <v>0.1186610113361581</v>
+        <v>0.200038364680232</v>
       </c>
       <c r="E3">
-        <v>0.07319162462140483</v>
+        <v>0.1548333156997757</v>
       </c>
       <c r="F3">
-        <v>0.5878721231340194</v>
+        <v>1.183726354629734</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.1932491162932255</v>
+        <v>0.5328619925022533</v>
       </c>
       <c r="J3">
-        <v>0.06525120070753587</v>
+        <v>0.1609187147277886</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6245316173048749</v>
+        <v>0.343004612708306</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.304927839279728</v>
+        <v>2.711440572946984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.998962435387057</v>
+        <v>0.7396247032714314</v>
       </c>
       <c r="C4">
-        <v>0.5369811744959918</v>
+        <v>0.1760380690245142</v>
       </c>
       <c r="D4">
-        <v>0.1118467349244341</v>
+        <v>0.1986851779473184</v>
       </c>
       <c r="E4">
-        <v>0.07093559723425358</v>
+        <v>0.1549289865395451</v>
       </c>
       <c r="F4">
-        <v>0.5746258523045711</v>
+        <v>1.18835840074771</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2011861315371615</v>
+        <v>0.5392324207284709</v>
       </c>
       <c r="J4">
-        <v>0.06503645709376471</v>
+        <v>0.1618099164969031</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5677272419193287</v>
+        <v>0.3262333129422217</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.286181155012002</v>
+        <v>2.727302318494409</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.917179163693334</v>
+        <v>0.7137039781734131</v>
       </c>
       <c r="C5">
-        <v>0.5154625582543702</v>
+        <v>0.1691481309999858</v>
       </c>
       <c r="D5">
-        <v>0.1090906239097009</v>
+        <v>0.1981492872878832</v>
       </c>
       <c r="E5">
-        <v>0.0700431568208657</v>
+        <v>0.154985507000525</v>
       </c>
       <c r="F5">
-        <v>0.5696185099196143</v>
+        <v>1.190452051768879</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2046312423271246</v>
+        <v>0.5419339037214268</v>
       </c>
       <c r="J5">
-        <v>0.06498749020079941</v>
+        <v>0.1621957163346259</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5446128680562836</v>
+        <v>0.3194114119667333</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.279594041842913</v>
+        <v>2.734291136818598</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.903599083184247</v>
+        <v>0.7093980583691462</v>
       </c>
       <c r="C6">
-        <v>0.5118891629945495</v>
+        <v>0.1680032675435541</v>
       </c>
       <c r="D6">
-        <v>0.1086341868160048</v>
+        <v>0.198061244042286</v>
       </c>
       <c r="E6">
-        <v>0.06989655460447253</v>
+        <v>0.1549959517687185</v>
       </c>
       <c r="F6">
-        <v>0.568810012525141</v>
+        <v>1.190812140644859</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2052157466929874</v>
+        <v>0.5423888482487325</v>
       </c>
       <c r="J6">
-        <v>0.06498163608040386</v>
+        <v>0.1622611445010484</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5407765316319129</v>
+        <v>0.3182794103298789</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.278562104763566</v>
+        <v>2.735483311316628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.99785946336084</v>
+        <v>0.7392752492501131</v>
       </c>
       <c r="C7">
-        <v>0.5366909790346881</v>
+        <v>0.1759452024378163</v>
       </c>
       <c r="D7">
-        <v>0.1118094828446772</v>
+        <v>0.198677887702722</v>
       </c>
       <c r="E7">
-        <v>0.07092345426180202</v>
+        <v>0.1549296777738753</v>
       </c>
       <c r="F7">
-        <v>0.5745567682955226</v>
+        <v>1.188385802400113</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2012317530610872</v>
+        <v>0.5392684270312671</v>
       </c>
       <c r="J7">
-        <v>0.06503564297128506</v>
+        <v>0.1618150279212394</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5674153879948136</v>
+        <v>0.3261412590663326</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.28608813576038</v>
+        <v>2.727394447409537</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.413987867218566</v>
+        <v>0.870843282234091</v>
       </c>
       <c r="C8">
-        <v>0.6461488660575014</v>
+        <v>0.2108728857933784</v>
       </c>
       <c r="D8">
-        <v>0.1260075197564703</v>
+        <v>0.2015352660586842</v>
       </c>
       <c r="E8">
-        <v>0.0756948024592603</v>
+        <v>0.1547911040532526</v>
       </c>
       <c r="F8">
-        <v>0.6034042078377198</v>
+        <v>1.179488394169503</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.1855275629558726</v>
+        <v>0.5264252384303365</v>
       </c>
       <c r="J8">
-        <v>0.06561716001144191</v>
+        <v>0.1600450923155066</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6852887174156947</v>
+        <v>0.3609428344195962</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.328698618159194</v>
+        <v>2.696311561930116</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.232608343245147</v>
+        <v>1.127770804551631</v>
       </c>
       <c r="C9">
-        <v>0.8613629193832537</v>
+        <v>0.2789171793601213</v>
       </c>
       <c r="D9">
-        <v>0.1546220882531628</v>
+        <v>0.2076239239028723</v>
       </c>
       <c r="E9">
-        <v>0.08600872819421568</v>
+        <v>0.1550712818679756</v>
       </c>
       <c r="F9">
-        <v>0.6740538423042111</v>
+        <v>1.168557834434139</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.1621633918434071</v>
+        <v>0.50458221266123</v>
       </c>
       <c r="J9">
-        <v>0.06811707222353292</v>
+        <v>0.1572890219108487</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9182536404635044</v>
+        <v>0.4295561425678116</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.450261429483248</v>
+        <v>2.651988839445721</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.837723176344696</v>
+        <v>1.315819253883262</v>
       </c>
       <c r="C10">
-        <v>1.020385914481182</v>
+        <v>0.3286211394548388</v>
       </c>
       <c r="D10">
-        <v>0.1762238024294618</v>
+        <v>0.2123900162200414</v>
       </c>
       <c r="E10">
-        <v>0.09426732143528938</v>
+        <v>0.1556128750754873</v>
       </c>
       <c r="F10">
-        <v>0.7361121913202169</v>
+        <v>1.164514829431837</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.1502218073713593</v>
+        <v>0.4905825250121119</v>
       </c>
       <c r="J10">
-        <v>0.07091051366458956</v>
+        <v>0.1557006066866329</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.091218012615016</v>
+        <v>0.480175673445153</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.56702917077061</v>
+        <v>2.629618584401015</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.114314281640816</v>
+        <v>1.401200570918093</v>
       </c>
       <c r="C11">
-        <v>1.09306310768261</v>
+        <v>0.3511674419906967</v>
       </c>
       <c r="D11">
-        <v>0.1862025736327837</v>
+        <v>0.2146211864236705</v>
       </c>
       <c r="E11">
-        <v>0.09819552335830295</v>
+        <v>0.1559320291362667</v>
       </c>
       <c r="F11">
-        <v>0.7669244306333809</v>
+        <v>1.163544680145577</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.1460894071856558</v>
+        <v>0.4846607805398371</v>
       </c>
       <c r="J11">
-        <v>0.07241971132127389</v>
+        <v>0.1550729349000797</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.170465611587304</v>
+        <v>0.503246512221196</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.627139834946462</v>
+        <v>2.62166720806627</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.219287396085747</v>
+        <v>1.433507491900457</v>
       </c>
       <c r="C12">
-        <v>1.120644686209005</v>
+        <v>0.3596955626244949</v>
       </c>
       <c r="D12">
-        <v>0.1900054366100647</v>
+        <v>0.2154750747441199</v>
       </c>
       <c r="E12">
-        <v>0.09970975184900155</v>
+        <v>0.1560633346872997</v>
       </c>
       <c r="F12">
-        <v>0.778997358148402</v>
+        <v>1.163302512095342</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.1447265253687462</v>
+        <v>0.4824828185386494</v>
       </c>
       <c r="J12">
-        <v>0.07302826065011914</v>
+        <v>0.1548489124218762</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.200570961939206</v>
+        <v>0.5119887883586784</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.651000673029358</v>
+        <v>2.618977114009084</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.196668406069875</v>
+        <v>1.426550763198122</v>
       </c>
       <c r="C13">
-        <v>1.114701617741616</v>
+        <v>0.3578593163812229</v>
       </c>
       <c r="D13">
-        <v>0.1891853115477886</v>
+        <v>0.2152907758441245</v>
       </c>
       <c r="E13">
-        <v>0.09938241341067666</v>
+        <v>0.1560345912419976</v>
       </c>
       <c r="F13">
-        <v>0.7763786588654966</v>
+        <v>1.163349094915247</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.1450108118934956</v>
+        <v>0.4829490105075251</v>
       </c>
       <c r="J13">
-        <v>0.07289550467123718</v>
+        <v>0.1548965517444429</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.194082718705488</v>
+        <v>0.5101057295947697</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.645811416067602</v>
+        <v>2.619542185470692</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.122945526287083</v>
+        <v>1.403858994155144</v>
       </c>
       <c r="C14">
-        <v>1.095330980532367</v>
+        <v>0.3518692519646152</v>
       </c>
       <c r="D14">
-        <v>0.1865149405397091</v>
+        <v>0.2146912565273027</v>
       </c>
       <c r="E14">
-        <v>0.09831955227038236</v>
+        <v>0.1559426224095866</v>
       </c>
       <c r="F14">
-        <v>0.7679093580609901</v>
+        <v>1.163522246139166</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.1459731440676322</v>
+        <v>0.4844803048381934</v>
       </c>
       <c r="J14">
-        <v>0.07246901795708993</v>
+        <v>0.155054230514672</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.172940384114654</v>
+        <v>0.5039656298167756</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.629080313230844</v>
+        <v>2.621439455147708</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.077819986929853</v>
+        <v>1.389956307120883</v>
       </c>
       <c r="C15">
-        <v>1.083474128909359</v>
+        <v>0.3481988918565548</v>
       </c>
       <c r="D15">
-        <v>0.1848824720882902</v>
+        <v>0.2143252025441882</v>
       </c>
       <c r="E15">
-        <v>0.09767206074019796</v>
+        <v>0.1558876490892693</v>
       </c>
       <c r="F15">
-        <v>0.7627754566600657</v>
+        <v>1.163644618946677</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.146589368592128</v>
+        <v>0.4854266699989473</v>
       </c>
       <c r="J15">
-        <v>0.07221269293174259</v>
+        <v>0.1551525931350746</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.160003054097814</v>
+        <v>0.5002053902025807</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.618977927548713</v>
+        <v>2.622643409599561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.819677568585234</v>
+        <v>1.310235960142506</v>
       </c>
       <c r="C16">
-        <v>1.015644058127208</v>
+        <v>0.3271463551298268</v>
       </c>
       <c r="D16">
-        <v>0.1755749146318522</v>
+        <v>0.2122454664080635</v>
       </c>
       <c r="E16">
-        <v>0.09401422494485345</v>
+        <v>0.1555934806908503</v>
       </c>
       <c r="F16">
-        <v>0.7341533156481574</v>
+        <v>1.16459573873756</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.1505192871054284</v>
+        <v>0.4909785347967848</v>
       </c>
       <c r="J16">
-        <v>0.07081691344815155</v>
+        <v>0.1557435376212943</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.086051600950412</v>
+        <v>0.4786687825430747</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.56324926804399</v>
+        <v>2.630183080739329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.661684184537137</v>
+        <v>1.261287173422033</v>
       </c>
       <c r="C17">
-        <v>0.9741269030169235</v>
+        <v>0.3142145341875278</v>
       </c>
       <c r="D17">
-        <v>0.1699055224444521</v>
+        <v>0.2109857116946188</v>
       </c>
       <c r="E17">
-        <v>0.09181556497517462</v>
+        <v>0.1554316467074344</v>
       </c>
       <c r="F17">
-        <v>0.7172789944818163</v>
+        <v>1.165401971881948</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.1532734522917458</v>
+        <v>0.4944990177940269</v>
       </c>
       <c r="J17">
-        <v>0.07002361915141719</v>
+        <v>0.1561303819387767</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.040839651530618</v>
+        <v>0.4654676635006467</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.530916231520308</v>
+        <v>2.635378984821472</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.570932088175255</v>
+        <v>1.233117897545696</v>
       </c>
       <c r="C18">
-        <v>0.9502782685479758</v>
+        <v>0.306770468213756</v>
       </c>
       <c r="D18">
-        <v>0.1666588040634451</v>
+        <v>0.2102670731579366</v>
       </c>
       <c r="E18">
-        <v>0.09056694741128268</v>
+        <v>0.1553454155445166</v>
       </c>
       <c r="F18">
-        <v>0.7078141534342848</v>
+        <v>1.165947479166682</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.1549789616412625</v>
+        <v>0.4965659463327619</v>
       </c>
       <c r="J18">
-        <v>0.06958960382339185</v>
+        <v>0.1563618166412013</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.014887185863543</v>
+        <v>0.4578788741522004</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.512971326226534</v>
+        <v>2.638576897762732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.540224575650313</v>
+        <v>1.22357770163768</v>
       </c>
       <c r="C19">
-        <v>0.94220849875677</v>
+        <v>0.3042490138643359</v>
       </c>
       <c r="D19">
-        <v>0.1655618881055432</v>
+        <v>0.2100247767987753</v>
       </c>
       <c r="E19">
-        <v>0.09014687334980209</v>
+        <v>0.1553173964162902</v>
       </c>
       <c r="F19">
-        <v>0.7046498947850921</v>
+        <v>1.16614621757634</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.1555768257400452</v>
+        <v>0.4972729862771068</v>
       </c>
       <c r="J19">
-        <v>0.06944639725249857</v>
+        <v>0.1564417100676749</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.006108672053649</v>
+        <v>0.4553101659446668</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.507004795530747</v>
+        <v>2.639695585323096</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.678489965696826</v>
+        <v>1.266499443855196</v>
       </c>
       <c r="C20">
-        <v>0.9785431906780389</v>
+        <v>0.3155917752675066</v>
       </c>
       <c r="D20">
-        <v>0.1705075569985866</v>
+        <v>0.2111192006029938</v>
       </c>
       <c r="E20">
-        <v>0.0920479463300552</v>
+        <v>0.1554481652332989</v>
       </c>
       <c r="F20">
-        <v>0.7190501341306259</v>
+        <v>1.165307680974223</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.1529675982643752</v>
+        <v>0.4941199037559514</v>
       </c>
       <c r="J20">
-        <v>0.07010574284537796</v>
+        <v>0.1560882771490739</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.045647030033962</v>
+        <v>0.4668725193657082</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.534289988954015</v>
+        <v>2.634804196268107</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144593001041244</v>
+        <v>1.4105248123808</v>
       </c>
       <c r="C21">
-        <v>1.101018869918278</v>
+        <v>0.353628945080402</v>
       </c>
       <c r="D21">
-        <v>0.1872986198141007</v>
+        <v>0.214867106415582</v>
       </c>
       <c r="E21">
-        <v>0.09863099837280132</v>
+        <v>0.1559693524413426</v>
       </c>
       <c r="F21">
-        <v>0.7703857232539235</v>
+        <v>1.16346798745198</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.1456848768163646</v>
+        <v>0.4840287749567302</v>
       </c>
       <c r="J21">
-        <v>0.07259325889176438</v>
+        <v>0.1550075454960513</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.179147671331563</v>
+        <v>0.5057689706973463</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.633964062911957</v>
+        <v>2.620873463658285</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.45060576667521</v>
+        <v>1.50450645199362</v>
       </c>
       <c r="C22">
-        <v>1.181421563501829</v>
+        <v>0.3784318444796213</v>
       </c>
       <c r="D22">
-        <v>0.1984143081132146</v>
+        <v>0.2173689610878853</v>
       </c>
       <c r="E22">
-        <v>0.1030901267761841</v>
+        <v>0.1563708743886174</v>
       </c>
       <c r="F22">
-        <v>0.8063147529977499</v>
+        <v>1.162995550838531</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.1421102496180637</v>
+        <v>0.4778095485602769</v>
       </c>
       <c r="J22">
-        <v>0.07443638123067586</v>
+        <v>0.1543808718294741</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.266965375072829</v>
+        <v>0.5312239465486925</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.705556554793048</v>
+        <v>2.613639937952343</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.2871384965743</v>
+        <v>1.454360718268902</v>
       </c>
       <c r="C23">
-        <v>1.13847220295952</v>
+        <v>0.3651993899205195</v>
       </c>
       <c r="D23">
-        <v>0.1924678937664765</v>
+        <v>0.2160289056247819</v>
       </c>
       <c r="E23">
-        <v>0.1006951414918902</v>
+        <v>0.1561510081648727</v>
       </c>
       <c r="F23">
-        <v>0.7869092905213506</v>
+        <v>1.163180833325839</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.1439043877115544</v>
+        <v>0.4810943960192375</v>
       </c>
       <c r="J23">
-        <v>0.07343181282030287</v>
+        <v>0.1547080464399926</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.220038315706887</v>
+        <v>0.5176351907092993</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.666723580537024</v>
+        <v>2.617329088694362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.670891824877344</v>
+        <v>1.264143063377105</v>
       </c>
       <c r="C24">
-        <v>0.9765465252073966</v>
+        <v>0.31496915379347</v>
       </c>
       <c r="D24">
-        <v>0.1702353378164503</v>
+        <v>0.2110588327841185</v>
       </c>
       <c r="E24">
-        <v>0.09194283883991261</v>
+        <v>0.1554406759962319</v>
       </c>
       <c r="F24">
-        <v>0.7182486679881634</v>
+        <v>1.165350054506533</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.1531054956704381</v>
+        <v>0.4942911674227943</v>
       </c>
       <c r="J24">
-        <v>0.07006854621718617</v>
+        <v>0.1561072845896057</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.043473489205113</v>
+        <v>0.4662373817858665</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.532762714887156</v>
+        <v>2.635063401864585</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010665906137376</v>
+        <v>1.058386627012453</v>
       </c>
       <c r="C25">
-        <v>0.8030260319744968</v>
+        <v>0.2605589639082666</v>
       </c>
       <c r="D25">
-        <v>0.14678773843724</v>
+        <v>0.20592514533746</v>
       </c>
       <c r="E25">
-        <v>0.08310639348973936</v>
+        <v>0.1549364739725156</v>
       </c>
       <c r="F25">
-        <v>0.6532784290108182</v>
+        <v>1.170815612382199</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.167619636351013</v>
+        <v>0.5101323877939912</v>
       </c>
       <c r="J25">
-        <v>0.06728254875046957</v>
+        <v>0.1579580159244891</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8549671837808006</v>
+        <v>0.4109566133679579</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.412882158217599</v>
+        <v>2.662193166503272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9064210071257435</v>
+        <v>2.526841363068627</v>
       </c>
       <c r="C2">
-        <v>0.2203067207800018</v>
+        <v>0.6758256720023894</v>
       </c>
       <c r="D2">
-        <v>0.2023424355200234</v>
+        <v>0.1299029981799293</v>
       </c>
       <c r="E2">
-        <v>0.1547909353960861</v>
+        <v>0.07704899662281761</v>
       </c>
       <c r="F2">
-        <v>1.17751814677009</v>
+        <v>0.6121187292590236</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.5231711738452223</v>
+        <v>0.1817513165203231</v>
       </c>
       <c r="J2">
-        <v>0.1596138729009482</v>
+        <v>0.06586228060179167</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3703977477924028</v>
+        <v>0.7173252769308078</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.689013073750971</v>
+        <v>1.342666843157332</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8031573600239881</v>
+        <v>2.199683128156778</v>
       </c>
       <c r="C3">
-        <v>0.1929127848293888</v>
+        <v>0.58978476717067</v>
       </c>
       <c r="D3">
-        <v>0.200038364680232</v>
+        <v>0.1186610113361581</v>
       </c>
       <c r="E3">
-        <v>0.1548333156997757</v>
+        <v>0.07319162462140127</v>
       </c>
       <c r="F3">
-        <v>1.183726354629734</v>
+        <v>0.5878721231340549</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.5328619925022533</v>
+        <v>0.1932491162932433</v>
       </c>
       <c r="J3">
-        <v>0.1609187147277886</v>
+        <v>0.0652512007076318</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.343004612708306</v>
+        <v>0.6245316173048607</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.711440572946984</v>
+        <v>1.304927839279699</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7396247032714314</v>
+        <v>1.99896243538717</v>
       </c>
       <c r="C4">
-        <v>0.1760380690245142</v>
+        <v>0.5369811744962192</v>
       </c>
       <c r="D4">
-        <v>0.1986851779473184</v>
+        <v>0.1118467349243844</v>
       </c>
       <c r="E4">
-        <v>0.1549289865395451</v>
+        <v>0.07093559723425358</v>
       </c>
       <c r="F4">
-        <v>1.18835840074771</v>
+        <v>0.5746258523045711</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.5392324207284709</v>
+        <v>0.2011861315371739</v>
       </c>
       <c r="J4">
-        <v>0.1618099164969031</v>
+        <v>0.06503645709364392</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3262333129422217</v>
+        <v>0.5677272419193358</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.727302318494409</v>
+        <v>1.286181155012002</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7137039781734131</v>
+        <v>1.917179163693447</v>
       </c>
       <c r="C5">
-        <v>0.1691481309999858</v>
+        <v>0.5154625582546259</v>
       </c>
       <c r="D5">
-        <v>0.1981492872878832</v>
+        <v>0.1090906239097791</v>
       </c>
       <c r="E5">
-        <v>0.154985507000525</v>
+        <v>0.07004315682087281</v>
       </c>
       <c r="F5">
-        <v>1.190452051768879</v>
+        <v>0.5696185099196001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.5419339037214268</v>
+        <v>0.2046312423271104</v>
       </c>
       <c r="J5">
-        <v>0.1621957163346259</v>
+        <v>0.06498749020084205</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3194114119667333</v>
+        <v>0.5446128680562765</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.734291136818598</v>
+        <v>1.27959404184287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7093980583691462</v>
+        <v>1.903599083184162</v>
       </c>
       <c r="C6">
-        <v>0.1680032675435541</v>
+        <v>0.5118891629944073</v>
       </c>
       <c r="D6">
-        <v>0.198061244042286</v>
+        <v>0.1086341868161256</v>
       </c>
       <c r="E6">
-        <v>0.1549959517687185</v>
+        <v>0.0698965546044974</v>
       </c>
       <c r="F6">
-        <v>1.190812140644859</v>
+        <v>0.5688100125251481</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.5423888482487325</v>
+        <v>0.2052157466929838</v>
       </c>
       <c r="J6">
-        <v>0.1622611445010484</v>
+        <v>0.06498163608040031</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3182794103298789</v>
+        <v>0.54077653163192</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.735483311316628</v>
+        <v>1.278562104763552</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7392752492501131</v>
+        <v>1.997859463360953</v>
       </c>
       <c r="C7">
-        <v>0.1759452024378163</v>
+        <v>0.5366909790344323</v>
       </c>
       <c r="D7">
-        <v>0.198677887702722</v>
+        <v>0.1118094828446274</v>
       </c>
       <c r="E7">
-        <v>0.1549296777738753</v>
+        <v>0.07092345426181268</v>
       </c>
       <c r="F7">
-        <v>1.188385802400113</v>
+        <v>0.5745567682955226</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.5392684270312671</v>
+        <v>0.2012317530610943</v>
       </c>
       <c r="J7">
-        <v>0.1618150279212394</v>
+        <v>0.0650356429712815</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3261412590663326</v>
+        <v>0.5674153879948278</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.727394447409537</v>
+        <v>1.28608813576048</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.870843282234091</v>
+        <v>2.413987867218793</v>
       </c>
       <c r="C8">
-        <v>0.2108728857933784</v>
+        <v>0.6461488660573025</v>
       </c>
       <c r="D8">
-        <v>0.2015352660586842</v>
+        <v>0.1260075197563992</v>
       </c>
       <c r="E8">
-        <v>0.1547911040532526</v>
+        <v>0.07569480245924254</v>
       </c>
       <c r="F8">
-        <v>1.179488394169503</v>
+        <v>0.6034042078377198</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.5264252384303365</v>
+        <v>0.1855275629558744</v>
       </c>
       <c r="J8">
-        <v>0.1600450923155066</v>
+        <v>0.0656171600114881</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3609428344195962</v>
+        <v>0.6852887174157161</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.696311561930116</v>
+        <v>1.328698618159194</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.127770804551631</v>
+        <v>3.232608343245261</v>
       </c>
       <c r="C9">
-        <v>0.2789171793601213</v>
+        <v>0.861362919383339</v>
       </c>
       <c r="D9">
-        <v>0.2076239239028723</v>
+        <v>0.1546220882533049</v>
       </c>
       <c r="E9">
-        <v>0.1550712818679756</v>
+        <v>0.08600872819423699</v>
       </c>
       <c r="F9">
-        <v>1.168557834434139</v>
+        <v>0.6740538423042253</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.50458221266123</v>
+        <v>0.1621633918434213</v>
       </c>
       <c r="J9">
-        <v>0.1572890219108487</v>
+        <v>0.06811707222349384</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4295561425678116</v>
+        <v>0.9182536404635115</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.651988839445721</v>
+        <v>1.450261429483163</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.315819253883262</v>
+        <v>3.837723176344753</v>
       </c>
       <c r="C10">
-        <v>0.3286211394548388</v>
+        <v>1.020385914481238</v>
       </c>
       <c r="D10">
-        <v>0.2123900162200414</v>
+        <v>0.176223802429746</v>
       </c>
       <c r="E10">
-        <v>0.1556128750754873</v>
+        <v>0.09426732143530003</v>
       </c>
       <c r="F10">
-        <v>1.164514829431837</v>
+        <v>0.7361121913202169</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.4905825250121119</v>
+        <v>0.1502218073713628</v>
       </c>
       <c r="J10">
-        <v>0.1557006066866329</v>
+        <v>0.07091051366461443</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.480175673445153</v>
+        <v>1.09121801261503</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.629618584401015</v>
+        <v>1.567029170770553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.401200570918093</v>
+        <v>4.114314281640873</v>
       </c>
       <c r="C11">
-        <v>0.3511674419906967</v>
+        <v>1.093063107682894</v>
       </c>
       <c r="D11">
-        <v>0.2146211864236705</v>
+        <v>0.1862025736328832</v>
       </c>
       <c r="E11">
-        <v>0.1559320291362667</v>
+        <v>0.09819552335832782</v>
       </c>
       <c r="F11">
-        <v>1.163544680145577</v>
+        <v>0.7669244306333809</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.4846607805398371</v>
+        <v>0.1460894071856735</v>
       </c>
       <c r="J11">
-        <v>0.1550729349000797</v>
+        <v>0.07241971132126679</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.503246512221196</v>
+        <v>1.170465611587289</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.62166720806627</v>
+        <v>1.62713983494649</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.433507491900457</v>
+        <v>4.219287396085747</v>
       </c>
       <c r="C12">
-        <v>0.3596955626244949</v>
+        <v>1.120644686208948</v>
       </c>
       <c r="D12">
-        <v>0.2154750747441199</v>
+        <v>0.1900054366102921</v>
       </c>
       <c r="E12">
-        <v>0.1560633346872997</v>
+        <v>0.09970975184899444</v>
       </c>
       <c r="F12">
-        <v>1.163302512095342</v>
+        <v>0.778997358148402</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.4824828185386494</v>
+        <v>0.1447265253687426</v>
       </c>
       <c r="J12">
-        <v>0.1548489124218762</v>
+        <v>0.07302826065018309</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5119887883586784</v>
+        <v>1.200570961939192</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.618977114009084</v>
+        <v>1.651000673029415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.426550763198122</v>
+        <v>4.196668406069875</v>
       </c>
       <c r="C13">
-        <v>0.3578593163812229</v>
+        <v>1.114701617741105</v>
       </c>
       <c r="D13">
-        <v>0.2152907758441245</v>
+        <v>0.1891853115475755</v>
       </c>
       <c r="E13">
-        <v>0.1560345912419976</v>
+        <v>0.09938241341069443</v>
       </c>
       <c r="F13">
-        <v>1.163349094915247</v>
+        <v>0.7763786588654966</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.4829490105075251</v>
+        <v>0.1450108118934956</v>
       </c>
       <c r="J13">
-        <v>0.1548965517444429</v>
+        <v>0.07289550467130113</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5101057295947697</v>
+        <v>1.194082718705488</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.619542185470692</v>
+        <v>1.645811416067517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.403858994155144</v>
+        <v>4.12294552628714</v>
       </c>
       <c r="C14">
-        <v>0.3518692519646152</v>
+        <v>1.095330980532594</v>
       </c>
       <c r="D14">
-        <v>0.2146912565273027</v>
+        <v>0.186514940539908</v>
       </c>
       <c r="E14">
-        <v>0.1559426224095866</v>
+        <v>0.09831955227038947</v>
       </c>
       <c r="F14">
-        <v>1.163522246139166</v>
+        <v>0.7679093580610044</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.4844803048381934</v>
+        <v>0.1459731440676109</v>
       </c>
       <c r="J14">
-        <v>0.155054230514672</v>
+        <v>0.07246901795716809</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5039656298167756</v>
+        <v>1.172940384114654</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.621439455147708</v>
+        <v>1.62908031323073</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.389956307120883</v>
+        <v>4.077819986930024</v>
       </c>
       <c r="C15">
-        <v>0.3481988918565548</v>
+        <v>1.083474128909188</v>
       </c>
       <c r="D15">
-        <v>0.2143252025441882</v>
+        <v>0.1848824720881623</v>
       </c>
       <c r="E15">
-        <v>0.1558876490892693</v>
+        <v>0.09767206074019441</v>
       </c>
       <c r="F15">
-        <v>1.163644618946677</v>
+        <v>0.7627754566600657</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.4854266699989473</v>
+        <v>0.1465893685921422</v>
       </c>
       <c r="J15">
-        <v>0.1551525931350746</v>
+        <v>0.07221269293189181</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5002053902025807</v>
+        <v>1.160003054097785</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.622643409599561</v>
+        <v>1.618977927548656</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.310235960142506</v>
+        <v>3.819677568585234</v>
       </c>
       <c r="C16">
-        <v>0.3271463551298268</v>
+        <v>1.015644058127123</v>
       </c>
       <c r="D16">
-        <v>0.2122454664080635</v>
+        <v>0.1755749146317385</v>
       </c>
       <c r="E16">
-        <v>0.1555934806908503</v>
+        <v>0.09401422494486411</v>
       </c>
       <c r="F16">
-        <v>1.16459573873756</v>
+        <v>0.7341533156481432</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.4909785347967848</v>
+        <v>0.1505192871054426</v>
       </c>
       <c r="J16">
-        <v>0.1557435376212943</v>
+        <v>0.07081691344813734</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4786687825430747</v>
+        <v>1.086051600950427</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.630183080739329</v>
+        <v>1.563249268044018</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261287173422033</v>
+        <v>3.661684184537194</v>
       </c>
       <c r="C17">
-        <v>0.3142145341875278</v>
+        <v>0.9741269030174067</v>
       </c>
       <c r="D17">
-        <v>0.2109857116946188</v>
+        <v>0.1699055224444379</v>
       </c>
       <c r="E17">
-        <v>0.1554316467074344</v>
+        <v>0.09181556497518883</v>
       </c>
       <c r="F17">
-        <v>1.165401971881948</v>
+        <v>0.7172789944818305</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.4944990177940269</v>
+        <v>0.1532734522917423</v>
       </c>
       <c r="J17">
-        <v>0.1561303819387767</v>
+        <v>0.07002361915138877</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4654676635006467</v>
+        <v>1.040839651530611</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.635378984821472</v>
+        <v>1.530916231520422</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.233117897545696</v>
+        <v>3.570932088175311</v>
       </c>
       <c r="C18">
-        <v>0.306770468213756</v>
+        <v>0.9502782685481748</v>
       </c>
       <c r="D18">
-        <v>0.2102670731579366</v>
+        <v>0.1666588040636725</v>
       </c>
       <c r="E18">
-        <v>0.1553454155445166</v>
+        <v>0.09056694741127913</v>
       </c>
       <c r="F18">
-        <v>1.165947479166682</v>
+        <v>0.7078141534342848</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.4965659463327619</v>
+        <v>0.1549789616412696</v>
       </c>
       <c r="J18">
-        <v>0.1563618166412013</v>
+        <v>0.06958960382347712</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4578788741522004</v>
+        <v>1.014887185863564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.638576897762732</v>
+        <v>1.512971326226534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.22357770163768</v>
+        <v>3.540224575650313</v>
       </c>
       <c r="C19">
-        <v>0.3042490138643359</v>
+        <v>0.9422084987567416</v>
       </c>
       <c r="D19">
-        <v>0.2100247767987753</v>
+        <v>0.1655618881054295</v>
       </c>
       <c r="E19">
-        <v>0.1553173964162902</v>
+        <v>0.09014687334980209</v>
       </c>
       <c r="F19">
-        <v>1.16614621757634</v>
+        <v>0.704649894785085</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.4972729862771068</v>
+        <v>0.1555768257400416</v>
       </c>
       <c r="J19">
-        <v>0.1564417100676749</v>
+        <v>0.06944639725242396</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4553101659446668</v>
+        <v>1.006108672053628</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.639695585323096</v>
+        <v>1.507004795530719</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.266499443855196</v>
+        <v>3.678489965696713</v>
       </c>
       <c r="C20">
-        <v>0.3155917752675066</v>
+        <v>0.9785431906781241</v>
       </c>
       <c r="D20">
-        <v>0.2111192006029938</v>
+        <v>0.1705075569988708</v>
       </c>
       <c r="E20">
-        <v>0.1554481652332989</v>
+        <v>0.09204794633003388</v>
       </c>
       <c r="F20">
-        <v>1.165307680974223</v>
+        <v>0.7190501341306259</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.4941199037559514</v>
+        <v>0.1529675982643752</v>
       </c>
       <c r="J20">
-        <v>0.1560882771490739</v>
+        <v>0.07010574284530691</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4668725193657082</v>
+        <v>1.045647030033962</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.634804196268107</v>
+        <v>1.5342899889541</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.4105248123808</v>
+        <v>4.144593001041358</v>
       </c>
       <c r="C21">
-        <v>0.353628945080402</v>
+        <v>1.101018869918278</v>
       </c>
       <c r="D21">
-        <v>0.214867106415582</v>
+        <v>0.1872986198141007</v>
       </c>
       <c r="E21">
-        <v>0.1559693524413426</v>
+        <v>0.09863099837280487</v>
       </c>
       <c r="F21">
-        <v>1.16346798745198</v>
+        <v>0.7703857232539235</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.4840287749567302</v>
+        <v>0.1456848768163646</v>
       </c>
       <c r="J21">
-        <v>0.1550075454960513</v>
+        <v>0.07259325889170753</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5057689706973463</v>
+        <v>1.179147671331549</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.620873463658285</v>
+        <v>1.633964062911957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.50450645199362</v>
+        <v>4.450605766674869</v>
       </c>
       <c r="C22">
-        <v>0.3784318444796213</v>
+        <v>1.181421563501829</v>
       </c>
       <c r="D22">
-        <v>0.2173689610878853</v>
+        <v>0.1984143081130867</v>
       </c>
       <c r="E22">
-        <v>0.1563708743886174</v>
+        <v>0.1030901267761486</v>
       </c>
       <c r="F22">
-        <v>1.162995550838531</v>
+        <v>0.8063147529977357</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.4778095485602769</v>
+        <v>0.1421102496180637</v>
       </c>
       <c r="J22">
-        <v>0.1543808718294741</v>
+        <v>0.07443638123076113</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5312239465486925</v>
+        <v>1.266965375072857</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.613639937952343</v>
+        <v>1.705556554793105</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.454360718268902</v>
+        <v>4.287138496574244</v>
       </c>
       <c r="C23">
-        <v>0.3651993899205195</v>
+        <v>1.138472202959235</v>
       </c>
       <c r="D23">
-        <v>0.2160289056247819</v>
+        <v>0.192467893766235</v>
       </c>
       <c r="E23">
-        <v>0.1561510081648727</v>
+        <v>0.1006951414918724</v>
       </c>
       <c r="F23">
-        <v>1.163180833325839</v>
+        <v>0.7869092905213506</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.4810943960192375</v>
+        <v>0.1439043877115367</v>
       </c>
       <c r="J23">
-        <v>0.1547080464399926</v>
+        <v>0.07343181282026023</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5176351907092993</v>
+        <v>1.220038315706887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.617329088694362</v>
+        <v>1.666723580537052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.264143063377105</v>
+        <v>3.670891824877401</v>
       </c>
       <c r="C24">
-        <v>0.31496915379347</v>
+        <v>0.9765465252072545</v>
       </c>
       <c r="D24">
-        <v>0.2110588327841185</v>
+        <v>0.1702353378163934</v>
       </c>
       <c r="E24">
-        <v>0.1554406759962319</v>
+        <v>0.09194283883992682</v>
       </c>
       <c r="F24">
-        <v>1.165350054506533</v>
+        <v>0.7182486679881634</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.4942911674227943</v>
+        <v>0.1531054956704416</v>
       </c>
       <c r="J24">
-        <v>0.1561072845896057</v>
+        <v>0.07006854621718972</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4662373817858665</v>
+        <v>1.043473489205105</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.635063401864585</v>
+        <v>1.532762714887184</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.058386627012453</v>
+        <v>3.010665906137262</v>
       </c>
       <c r="C25">
-        <v>0.2605589639082666</v>
+        <v>0.8030260319746958</v>
       </c>
       <c r="D25">
-        <v>0.20592514533746</v>
+        <v>0.1467877384372969</v>
       </c>
       <c r="E25">
-        <v>0.1549364739725156</v>
+        <v>0.08310639348973936</v>
       </c>
       <c r="F25">
-        <v>1.170815612382199</v>
+        <v>0.6532784290108182</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.5101323877939912</v>
+        <v>0.1676196363510236</v>
       </c>
       <c r="J25">
-        <v>0.1579580159244891</v>
+        <v>0.06728254875052286</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4109566133679579</v>
+        <v>0.8549671837808006</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.662193166503272</v>
+        <v>1.412882158217599</v>
       </c>
     </row>
   </sheetData>
